--- a/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
+++ b/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A038209-26D4-42E1-BF5F-966FD5B84839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D356D507-A576-4014-BA69-E8E37E723696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>Дата</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Подготовка 4-осн В/Ц под налив горячим способом для всех видов ремонта тем/тем</t>
+  </si>
+  <si>
+    <t>Собственник</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1530,7 @@
   <dimension ref="A2:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,8 +1544,8 @@
     <col min="9" max="9" width="5.7109375" customWidth="1"/>
     <col min="10" max="10" width="6.28515625" customWidth="1"/>
     <col min="13" max="14" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="5.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="16" max="16" width="35.85546875" customWidth="1"/>
     <col min="17" max="20" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1719,7 +1722,7 @@
         <v>15</v>
       </c>
       <c r="P8" s="26" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">

--- a/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
+++ b/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D356D507-A576-4014-BA69-E8E37E723696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A959EE-7DEC-4527-ABA7-ACF5A45FC0B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="525" windowWidth="22560" windowHeight="12885" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Собственник" sheetId="3" state="hidden" r:id="rId1"/>
@@ -417,6 +417,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -424,22 +439,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1270,85 +1270,85 @@
       <c r="V6" s="11"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="26" t="s">
+      <c r="J8" s="28"/>
+      <c r="K8" s="24" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="28"/>
-      <c r="O8" s="26" t="s">
+      <c r="N8" s="31"/>
+      <c r="O8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="P8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="Q8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="28" t="s">
+      <c r="R8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="28"/>
-      <c r="T8" s="24" t="s">
+      <c r="S8" s="31"/>
+      <c r="T8" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="26" t="s">
+      <c r="U8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="26" t="s">
+      <c r="V8" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="27"/>
+      <c r="K9" s="25"/>
       <c r="L9" s="9" t="s">
         <v>19</v>
       </c>
@@ -1358,18 +1358,18 @@
       <c r="N9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="30"/>
       <c r="R9" s="20" t="s">
         <v>41</v>
       </c>
       <c r="S9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="25"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -1500,13 +1500,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
@@ -1517,6 +1510,13 @@
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -1530,7 +1530,7 @@
   <dimension ref="A2:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,78 +1680,78 @@
       <c r="V6" s="11"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="26" t="s">
+      <c r="J8" s="28"/>
+      <c r="K8" s="24" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="O8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="P8" s="24" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="27"/>
+      <c r="K9" s="25"/>
       <c r="L9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="str">

--- a/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
+++ b/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A959EE-7DEC-4527-ABA7-ACF5A45FC0B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C073499D-8B05-4490-A958-A731562B3ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="525" windowWidth="22560" windowHeight="12885" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28980" yWindow="2775" windowWidth="22560" windowHeight="12885" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Собственник" sheetId="3" state="hidden" r:id="rId1"/>
@@ -16,9 +16,9 @@
     <definedName name="ЗаголовкиСтолбцов" localSheetId="0">Собственник!$A$8:$V$9</definedName>
     <definedName name="ЗаголовокОтчета" localSheetId="1">Test!$C$2:$L$6</definedName>
     <definedName name="ЗаголовокОтчета" localSheetId="0">Собственник!$C$2:$L$6</definedName>
-    <definedName name="Подписи" localSheetId="1">Test!$C$30:$L$1302</definedName>
+    <definedName name="Подписи" localSheetId="1">Test!$C$19:$L$1291</definedName>
     <definedName name="Подписи" localSheetId="0">Собственник!$C$20:$L$25</definedName>
-    <definedName name="СтрокаИтогоВЦ" localSheetId="1">Test!$B$14:$P$14</definedName>
+    <definedName name="СтрокаИтогоВЦ" localSheetId="1">Test!$M$14:$P$14</definedName>
     <definedName name="СтрокаИтогоВЦ" localSheetId="0">Собственник!$B$14:$P$14</definedName>
     <definedName name="СтрокаИтогоСумма" localSheetId="1">Test!$C$28:$P$28</definedName>
     <definedName name="СтрокаИтогоСумма" localSheetId="0">Собственник!$C$18:$P$18</definedName>
@@ -26,7 +26,7 @@
     <definedName name="СтрокаПериода" localSheetId="0">Собственник!$B$12</definedName>
     <definedName name="СтрокаТаблицыДанных" localSheetId="1">Test!$A$10:$V$10</definedName>
     <definedName name="СтрокаТаблицыДанных" localSheetId="0">Собственник!$A$10:$V$10</definedName>
-    <definedName name="СтрокаУслуги" localSheetId="1">Test!$B$16:$P$16</definedName>
+    <definedName name="СтрокаУслуги" localSheetId="1">Test!$M$16:$P$16</definedName>
     <definedName name="СтрокаУслуги" localSheetId="0">Собственник!$B$16:$P$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>Дата</t>
   </si>
@@ -190,25 +190,7 @@
     <t>Абильбашарова С.Ж.</t>
   </si>
   <si>
-    <t>Подготовка 4-осн В/Ц под налив горячим способом тем/тем</t>
-  </si>
-  <si>
-    <t>Подготовка 4-осн В/Ц под налив горячим способом св/св</t>
-  </si>
-  <si>
-    <t>Подготовка 4-осн В/Ц под налив горячим способом для всех видов ремонта св/св</t>
-  </si>
-  <si>
-    <t>Осмотр котлов 4-осн В/Ц, пригодных под налив без обработки</t>
-  </si>
-  <si>
     <t>ТОР 4-х осных:</t>
-  </si>
-  <si>
-    <t>Всего обработано вагонов-цистерн АО НК КТЖ по видам операций:</t>
-  </si>
-  <si>
-    <t>Подготовка 4-осн В/Ц под налив горячим способом для всех видов ремонта тем/тем</t>
   </si>
   <si>
     <t>Собственник</t>
@@ -417,29 +399,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,13 +616,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>13097</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -689,13 +671,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>275034</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -744,13 +726,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>8334</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1270,85 +1252,85 @@
       <c r="V6" s="11"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="24" t="s">
+      <c r="J8" s="29"/>
+      <c r="K8" s="26" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="31" t="s">
+      <c r="M8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="24" t="s">
+      <c r="N8" s="28"/>
+      <c r="O8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="24" t="s">
+      <c r="P8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="29" t="s">
+      <c r="Q8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="31" t="s">
+      <c r="R8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="31"/>
-      <c r="T8" s="29" t="s">
+      <c r="S8" s="28"/>
+      <c r="T8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="24" t="s">
+      <c r="U8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="24" t="s">
+      <c r="V8" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="25"/>
+      <c r="K9" s="27"/>
       <c r="L9" s="9" t="s">
         <v>19</v>
       </c>
@@ -1358,18 +1340,18 @@
       <c r="N9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="30"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="25"/>
       <c r="R9" s="20" t="s">
         <v>41</v>
       </c>
       <c r="S9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="30"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -1500,6 +1482,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
@@ -1510,13 +1499,6 @@
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -1527,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:V34"/>
+  <dimension ref="A2:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,78 +1662,78 @@
       <c r="V6" s="11"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="24" t="s">
+      <c r="J8" s="29"/>
+      <c r="K8" s="26" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="24" t="s">
+      <c r="M8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="24" t="s">
+      <c r="N8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="24" t="s">
+      <c r="O8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="24" t="s">
-        <v>54</v>
+      <c r="P8" s="26" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="25"/>
+      <c r="K9" s="27"/>
       <c r="L9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="str">
@@ -1760,124 +1742,106 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>52</v>
-      </c>
       <c r="O14" s="14"/>
       <c r="P14" s="17"/>
     </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
-        <v>48</v>
-      </c>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
-        <v>47</v>
-      </c>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C17" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="15" t="s">
-        <v>49</v>
-      </c>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
-        <v>53</v>
-      </c>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
-        <v>50</v>
-      </c>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C23" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
-        <v>51</v>
-      </c>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C28" s="16" t="s">
-        <v>30</v>
-      </c>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
       <c r="P28" s="17"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C30" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C32" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C34" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
+++ b/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C073499D-8B05-4490-A958-A731562B3ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339599F8-6FFB-41E1-B8CB-95852D3083E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28980" yWindow="2775" windowWidth="22560" windowHeight="12885" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Собственник" sheetId="3" state="hidden" r:id="rId1"/>
@@ -399,6 +399,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -406,22 +421,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1252,85 +1252,85 @@
       <c r="V6" s="11"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="26" t="s">
+      <c r="J8" s="28"/>
+      <c r="K8" s="24" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="28"/>
-      <c r="O8" s="26" t="s">
+      <c r="N8" s="31"/>
+      <c r="O8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="P8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="Q8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="28" t="s">
+      <c r="R8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="28"/>
-      <c r="T8" s="24" t="s">
+      <c r="S8" s="31"/>
+      <c r="T8" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="26" t="s">
+      <c r="U8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="26" t="s">
+      <c r="V8" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="27"/>
+      <c r="K9" s="25"/>
       <c r="L9" s="9" t="s">
         <v>19</v>
       </c>
@@ -1340,18 +1340,18 @@
       <c r="N9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="30"/>
       <c r="R9" s="20" t="s">
         <v>41</v>
       </c>
       <c r="S9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="25"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -1482,13 +1482,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
@@ -1499,6 +1492,13 @@
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -1512,7 +1512,7 @@
   <dimension ref="A2:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="P8" sqref="P8:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,7 +1527,7 @@
     <col min="10" max="10" width="6.28515625" customWidth="1"/>
     <col min="13" max="14" width="15.28515625" customWidth="1"/>
     <col min="15" max="15" width="15.5703125" customWidth="1"/>
-    <col min="16" max="16" width="35.85546875" customWidth="1"/>
+    <col min="16" max="16" width="44.140625" customWidth="1"/>
     <col min="17" max="20" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1662,78 +1662,78 @@
       <c r="V6" s="11"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="26" t="s">
+      <c r="J8" s="28"/>
+      <c r="K8" s="24" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="O8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="P8" s="24" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="27"/>
+      <c r="K9" s="25"/>
       <c r="L9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="str">

--- a/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
+++ b/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
@@ -1,39 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339599F8-6FFB-41E1-B8CB-95852D3083E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C99C32-226C-4DF2-9035-67B94712A961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Собственник" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="Test" sheetId="7" r:id="rId2"/>
+    <sheet name="ТОО Казыкурт" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ЗаголовкиСтолбцов" localSheetId="1">Test!$A$8:$P$9</definedName>
     <definedName name="ЗаголовкиСтолбцов" localSheetId="0">Собственник!$A$8:$V$9</definedName>
-    <definedName name="ЗаголовокОтчета" localSheetId="1">Test!$C$2:$L$6</definedName>
+    <definedName name="ЗаголовкиСтолбцов" localSheetId="1">'ТОО Казыкурт'!$A$8:$P$9</definedName>
     <definedName name="ЗаголовокОтчета" localSheetId="0">Собственник!$C$2:$L$6</definedName>
-    <definedName name="Подписи" localSheetId="1">Test!$C$19:$L$1291</definedName>
+    <definedName name="ЗаголовокОтчета" localSheetId="1">'ТОО Казыкурт'!$C$2:$L$6</definedName>
     <definedName name="Подписи" localSheetId="0">Собственник!$C$20:$L$25</definedName>
-    <definedName name="СтрокаИтогоВЦ" localSheetId="1">Test!$M$14:$P$14</definedName>
+    <definedName name="Подписи" localSheetId="1">'ТОО Казыкурт'!$C$19:$L$1291</definedName>
     <definedName name="СтрокаИтогоВЦ" localSheetId="0">Собственник!$B$14:$P$14</definedName>
-    <definedName name="СтрокаИтогоСумма" localSheetId="1">Test!$C$28:$P$28</definedName>
+    <definedName name="СтрокаИтогоВЦ" localSheetId="1">'ТОО Казыкурт'!$M$14:$P$14</definedName>
     <definedName name="СтрокаИтогоСумма" localSheetId="0">Собственник!$C$18:$P$18</definedName>
-    <definedName name="СтрокаПериода" localSheetId="1">Test!$B$12</definedName>
+    <definedName name="СтрокаИтогоСумма" localSheetId="1">'ТОО Казыкурт'!$C$28:$P$28</definedName>
     <definedName name="СтрокаПериода" localSheetId="0">Собственник!$B$12</definedName>
-    <definedName name="СтрокаТаблицыДанных" localSheetId="1">Test!$A$10:$V$10</definedName>
+    <definedName name="СтрокаПериода" localSheetId="1">'ТОО Казыкурт'!$B$12</definedName>
     <definedName name="СтрокаТаблицыДанных" localSheetId="0">Собственник!$A$10:$V$10</definedName>
-    <definedName name="СтрокаУслуги" localSheetId="1">Test!$M$16:$P$16</definedName>
+    <definedName name="СтрокаТаблицыДанных" localSheetId="1">'ТОО Казыкурт'!$A$10:$V$10</definedName>
     <definedName name="СтрокаУслуги" localSheetId="0">Собственник!$B$16:$P$16</definedName>
+    <definedName name="СтрокаУслуги" localSheetId="1">'ТОО Казыкурт'!$M$16:$P$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -399,29 +400,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1252,85 +1253,85 @@
       <c r="V6" s="11"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="24" t="s">
+      <c r="J8" s="29"/>
+      <c r="K8" s="26" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="31" t="s">
+      <c r="M8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="24" t="s">
+      <c r="N8" s="28"/>
+      <c r="O8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="24" t="s">
+      <c r="P8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="29" t="s">
+      <c r="Q8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="31" t="s">
+      <c r="R8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="31"/>
-      <c r="T8" s="29" t="s">
+      <c r="S8" s="28"/>
+      <c r="T8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="24" t="s">
+      <c r="U8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="24" t="s">
+      <c r="V8" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="25"/>
+      <c r="K9" s="27"/>
       <c r="L9" s="9" t="s">
         <v>19</v>
       </c>
@@ -1340,18 +1341,18 @@
       <c r="N9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="30"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="25"/>
       <c r="R9" s="20" t="s">
         <v>41</v>
       </c>
       <c r="S9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="30"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -1482,6 +1483,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
@@ -1492,13 +1500,6 @@
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -1512,7 +1513,7 @@
   <dimension ref="A2:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8:P9"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,78 +1663,78 @@
       <c r="V6" s="11"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="24" t="s">
+      <c r="J8" s="29"/>
+      <c r="K8" s="26" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="24" t="s">
+      <c r="M8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="24" t="s">
+      <c r="N8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="24" t="s">
+      <c r="O8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="24" t="s">
+      <c r="P8" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="25"/>
+      <c r="K9" s="27"/>
       <c r="L9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="str">

--- a/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
+++ b/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C99C32-226C-4DF2-9035-67B94712A961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA22A9F1-7202-479C-8E06-71714FF6768B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>Дата</t>
   </si>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t>АО НК КТЖ</t>
-  </si>
-  <si>
-    <t>Танирбергенов Т.А.</t>
   </si>
   <si>
     <t>Абильбашарова С.Ж.</t>
@@ -400,6 +397,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -407,22 +419,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1253,85 +1250,85 @@
       <c r="V6" s="11"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="26" t="s">
+      <c r="J8" s="28"/>
+      <c r="K8" s="24" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="28"/>
-      <c r="O8" s="26" t="s">
+      <c r="N8" s="31"/>
+      <c r="O8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="P8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="Q8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="28" t="s">
+      <c r="R8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="28"/>
-      <c r="T8" s="24" t="s">
+      <c r="S8" s="31"/>
+      <c r="T8" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="26" t="s">
+      <c r="U8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="26" t="s">
+      <c r="V8" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="27"/>
+      <c r="K9" s="25"/>
       <c r="L9" s="9" t="s">
         <v>19</v>
       </c>
@@ -1341,18 +1338,18 @@
       <c r="N9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="30"/>
       <c r="R9" s="20" t="s">
         <v>41</v>
       </c>
       <c r="S9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="25"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -1483,13 +1480,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
@@ -1500,6 +1490,13 @@
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -1513,7 +1510,7 @@
   <dimension ref="A2:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,78 +1660,78 @@
       <c r="V6" s="11"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="26" t="s">
+      <c r="J8" s="28"/>
+      <c r="K8" s="24" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="O8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="26" t="s">
-        <v>48</v>
+      <c r="P8" s="24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="27"/>
+      <c r="K9" s="25"/>
       <c r="L9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="str">
@@ -1748,7 +1745,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -1775,9 +1772,7 @@
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="18" t="s">
-        <v>45</v>
-      </c>
+      <c r="K19" s="18"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" s="18"/>
@@ -1804,7 +1799,7 @@
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.25">

--- a/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
+++ b/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA22A9F1-7202-479C-8E06-71714FF6768B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C988D4E3-D1D0-4A9D-A2F0-FB64FE8DD16D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Собственник" sheetId="3" state="hidden" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="ЗаголовкиСтолбцов" localSheetId="0">Собственник!$A$8:$V$9</definedName>
-    <definedName name="ЗаголовкиСтолбцов" localSheetId="1">'ТОО Казыкурт'!$A$8:$P$9</definedName>
+    <definedName name="ЗаголовкиСтолбцов" localSheetId="1">'ТОО Казыкурт'!$A$8:$R$9</definedName>
     <definedName name="ЗаголовокОтчета" localSheetId="0">Собственник!$C$2:$L$6</definedName>
     <definedName name="ЗаголовокОтчета" localSheetId="1">'ТОО Казыкурт'!$C$2:$L$6</definedName>
     <definedName name="Подписи" localSheetId="0">Собственник!$C$20:$L$25</definedName>
@@ -34,7 +34,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>Дата</t>
   </si>
@@ -179,19 +181,46 @@
     <t>Оконч. обр-ки</t>
   </si>
   <si>
-    <t>в ТОО Казыгурт-Юг с 01.10.2015 по 11.10.2015</t>
-  </si>
-  <si>
-    <t>АО НК КТЖ</t>
+    <t>ТОР 4-х осных:</t>
+  </si>
+  <si>
+    <t>Собственник</t>
+  </si>
+  <si>
+    <t>всех</t>
+  </si>
+  <si>
+    <t>в ТОО Казыгурт-Юг c 01.01.2020 по 31.01.2020</t>
+  </si>
+  <si>
+    <t>04.01.2020</t>
+  </si>
+  <si>
+    <t>тс/тс</t>
+  </si>
+  <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ДР,КР № 1</t>
+  </si>
+  <si>
+    <t>ДР,КР № 2</t>
+  </si>
+  <si>
+    <t>Стоимость услуги</t>
+  </si>
+  <si>
+    <t>Стоимость ТОР</t>
   </si>
   <si>
     <t>Абильбашарова С.Ж.</t>
   </si>
   <si>
-    <t>ТОР 4-х осных:</t>
-  </si>
-  <si>
-    <t>Собственник</t>
+    <t>Ибрагим Р.С.</t>
   </si>
 </sst>
 </file>
@@ -330,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -391,11 +420,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -458,7 +484,7 @@
         <xdr:cNvPr id="2" name="Прямая соединительная линия 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C4BDB7-D4B6-429D-989B-ACCC750804A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A29D1B-9E51-496B-9B14-8B44CAAD0422}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -513,7 +539,7 @@
         <xdr:cNvPr id="3" name="Прямая соединительная линия 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0203F345-9B47-4A70-8E0C-063DD9EA40C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ACB0357-63EB-4A9F-8472-CA12542B7102}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -568,7 +594,7 @@
         <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F64F7691-1E66-4E6E-A574-3B69624ECFC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7865748-BB9B-4F20-8614-75F97DF93E6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -628,7 +654,7 @@
         <xdr:cNvPr id="2" name="Прямая соединительная линия 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF983D44-B083-48D9-807A-503FB434D392}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF3E08E-7E07-441A-BB21-51A69FE0FB26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -683,7 +709,7 @@
         <xdr:cNvPr id="3" name="Прямая соединительная линия 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28238C54-27CF-4394-A440-91DFAD77330C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B24195-43D8-4129-A9A8-941F8D9E2F73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -738,7 +764,7 @@
         <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{197B809F-E8CB-4D1A-BE70-043E540AA378}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A49A9F0-C67F-4F93-B23F-042047104E01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1250,85 +1276,85 @@
       <c r="V6" s="11"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="24" t="s">
+      <c r="J8" s="27"/>
+      <c r="K8" s="23" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="31" t="s">
+      <c r="M8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="24" t="s">
+      <c r="N8" s="30"/>
+      <c r="O8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="24" t="s">
+      <c r="P8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="29" t="s">
+      <c r="Q8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="31" t="s">
+      <c r="R8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="31"/>
-      <c r="T8" s="29" t="s">
+      <c r="S8" s="30"/>
+      <c r="T8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="24" t="s">
+      <c r="U8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="24" t="s">
+      <c r="V8" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="25"/>
+      <c r="K9" s="24"/>
       <c r="L9" s="9" t="s">
         <v>19</v>
       </c>
@@ -1338,18 +1364,18 @@
       <c r="N9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="30"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="29"/>
       <c r="R9" s="20" t="s">
         <v>41</v>
       </c>
       <c r="S9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="30"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -1509,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,8 +1550,8 @@
     <col min="9" max="9" width="5.7109375" customWidth="1"/>
     <col min="10" max="10" width="6.28515625" customWidth="1"/>
     <col min="13" max="14" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" customWidth="1"/>
-    <col min="16" max="16" width="44.140625" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="20" customWidth="1"/>
     <col min="17" max="20" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1585,7 +1611,7 @@
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -1636,8 +1662,8 @@
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
-        <v>43</v>
+      <c r="C6" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -1660,84 +1686,127 @@
       <c r="V6" s="11"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="24" t="s">
+      <c r="J8" s="27"/>
+      <c r="K8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="22" t="s">
-        <v>12</v>
+      <c r="L8" s="28" t="s">
+        <v>51</v>
       </c>
       <c r="M8" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="24" t="s">
+      <c r="O8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="24" t="s">
-        <v>15</v>
-      </c>
       <c r="P8" s="24" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="Q8" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="R8" s="23" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>1</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="22">
+        <v>53873956</v>
+      </c>
+      <c r="D10" s="22">
+        <v>4</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="22">
+        <v>3</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="str">
-        <f>C6</f>
-        <v>в ТОО Казыгурт-Юг с 01.10.2015 по 11.10.2015</v>
-      </c>
+      <c r="B12" s="13"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O14" s="14"/>
@@ -1745,7 +1814,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -1771,7 +1840,9 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="J19" s="18" t="s">
+        <v>56</v>
+      </c>
       <c r="K19" s="18"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.25">
@@ -1797,10 +1868,10 @@
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18" t="s">
-        <v>45</v>
-      </c>
+      <c r="J21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C22" s="18"/>
@@ -1840,10 +1911,10 @@
       <c r="P28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
     <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="N8:N9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -1851,8 +1922,11 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
+    <mergeCell ref="P8:P9"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:K9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L8:L9"/>
     <mergeCell ref="M8:M9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>

--- a/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
+++ b/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C988D4E3-D1D0-4A9D-A2F0-FB64FE8DD16D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F12008-EC3B-49A7-B3A3-A5678536256E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Собственник" sheetId="3" state="hidden" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>Дата</t>
   </si>
@@ -205,12 +205,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>ДР,КР № 1</t>
-  </si>
-  <si>
-    <t>ДР,КР № 2</t>
-  </si>
-  <si>
     <t>Стоимость услуги</t>
   </si>
   <si>
@@ -221,6 +215,15 @@
   </si>
   <si>
     <t>Ибрагим Р.С.</t>
+  </si>
+  <si>
+    <t>ДР,КР с наружкой</t>
+  </si>
+  <si>
+    <t>ДР,КР без наружки</t>
+  </si>
+  <si>
+    <t>№ акта</t>
   </si>
 </sst>
 </file>
@@ -423,29 +426,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1276,85 +1279,85 @@
       <c r="V6" s="11"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="23" t="s">
+      <c r="J8" s="28"/>
+      <c r="K8" s="25" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="30" t="s">
+      <c r="M8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="30"/>
-      <c r="O8" s="23" t="s">
+      <c r="N8" s="27"/>
+      <c r="O8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="23" t="s">
+      <c r="P8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="28" t="s">
+      <c r="Q8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="30" t="s">
+      <c r="R8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="30"/>
-      <c r="T8" s="28" t="s">
+      <c r="S8" s="27"/>
+      <c r="T8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="23" t="s">
+      <c r="U8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="23" t="s">
+      <c r="V8" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="24"/>
+      <c r="K9" s="26"/>
       <c r="L9" s="9" t="s">
         <v>19</v>
       </c>
@@ -1364,18 +1367,18 @@
       <c r="N9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="29"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="24"/>
       <c r="R9" s="20" t="s">
         <v>41</v>
       </c>
       <c r="S9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="29"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -1506,6 +1509,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
@@ -1516,13 +1526,6 @@
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -1536,7 +1539,7 @@
   <dimension ref="A2:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,7 +1552,8 @@
     <col min="8" max="8" width="4.85546875" customWidth="1"/>
     <col min="9" max="9" width="5.7109375" customWidth="1"/>
     <col min="10" max="10" width="6.28515625" customWidth="1"/>
-    <col min="13" max="14" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
     <col min="15" max="15" width="19.28515625" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
     <col min="17" max="20" width="15.28515625" customWidth="1"/>
@@ -1686,84 +1690,84 @@
       <c r="V6" s="11"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="23" t="s">
+      <c r="J8" s="28"/>
+      <c r="K8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="24" t="s">
+      <c r="Q8" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="P8" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q8" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="R8" s="23" t="s">
+      <c r="R8" s="25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
@@ -1841,7 +1845,7 @@
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K19" s="18"/>
     </row>
@@ -1869,7 +1873,7 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K21" s="18"/>
     </row>

--- a/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
+++ b/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F12008-EC3B-49A7-B3A3-A5678536256E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED506F45-4284-4FDF-BF11-5D20B0B260A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>Дата</t>
   </si>
@@ -191,18 +191,6 @@
   </si>
   <si>
     <t>в ТОО Казыгурт-Юг c 01.01.2020 по 31.01.2020</t>
-  </si>
-  <si>
-    <t>04.01.2020</t>
-  </si>
-  <si>
-    <t>тс/тс</t>
-  </si>
-  <si>
-    <t>✓</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Стоимость услуги</t>
@@ -426,6 +414,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -433,22 +436,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,13 +631,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>13097</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -698,13 +686,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>275034</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -753,13 +741,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>8334</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1279,85 +1267,85 @@
       <c r="V6" s="11"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="25" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="25" t="s">
+      <c r="J8" s="27"/>
+      <c r="K8" s="23" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="25" t="s">
+      <c r="N8" s="30"/>
+      <c r="O8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="25" t="s">
+      <c r="P8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="23" t="s">
+      <c r="Q8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="27" t="s">
+      <c r="R8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="27"/>
-      <c r="T8" s="23" t="s">
+      <c r="S8" s="30"/>
+      <c r="T8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="25" t="s">
+      <c r="U8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="25" t="s">
+      <c r="V8" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="26"/>
+      <c r="K9" s="24"/>
       <c r="L9" s="9" t="s">
         <v>19</v>
       </c>
@@ -1367,18 +1355,18 @@
       <c r="N9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="29"/>
       <c r="R9" s="20" t="s">
         <v>41</v>
       </c>
       <c r="S9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="24"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -1509,13 +1497,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
@@ -1526,6 +1507,13 @@
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -1538,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,118 +1678,98 @@
       <c r="V6" s="11"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="25" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="25" t="s">
+      <c r="J8" s="27"/>
+      <c r="K8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="O8" s="25" t="s">
+      <c r="L8" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q8" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="R8" s="25" t="s">
+      <c r="P8" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" s="23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
-        <v>1</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="22">
-        <v>53873956</v>
-      </c>
-      <c r="D10" s="22">
-        <v>4</v>
-      </c>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="22">
-        <v>3</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>50</v>
-      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
@@ -1812,13 +1780,18 @@
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
     </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O14" s="14"/>
       <c r="P14" s="17"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>43</v>
+      <c r="C15" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -1826,17 +1799,36 @@
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C17" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="C17" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="18"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C19" s="18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -1845,7 +1837,7 @@
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K19" s="18"/>
     </row>
@@ -1864,7 +1856,7 @@
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C21" s="18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -1872,36 +1864,12 @@
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="18" t="s">
-        <v>53</v>
-      </c>
+      <c r="J21" s="18"/>
       <c r="K21" s="18"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C23" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="O24" s="14"/>

--- a/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
+++ b/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED506F45-4284-4FDF-BF11-5D20B0B260A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A27DDA-344E-41C7-9A41-943BE081F1A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2655" windowWidth="24240" windowHeight="13290" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Собственник" sheetId="3" state="hidden" r:id="rId1"/>
@@ -13,13 +13,13 @@
   </sheets>
   <definedNames>
     <definedName name="ЗаголовкиСтолбцов" localSheetId="0">Собственник!$A$8:$V$9</definedName>
-    <definedName name="ЗаголовкиСтолбцов" localSheetId="1">'ТОО Казыкурт'!$A$8:$R$9</definedName>
+    <definedName name="ЗаголовкиСтолбцов" localSheetId="1">'ТОО Казыкурт'!$A$8:$O$9</definedName>
     <definedName name="ЗаголовокОтчета" localSheetId="0">Собственник!$C$2:$L$6</definedName>
     <definedName name="ЗаголовокОтчета" localSheetId="1">'ТОО Казыкурт'!$C$2:$L$6</definedName>
     <definedName name="Подписи" localSheetId="0">Собственник!$C$20:$L$25</definedName>
     <definedName name="Подписи" localSheetId="1">'ТОО Казыкурт'!$C$19:$L$1291</definedName>
     <definedName name="СтрокаИтогоВЦ" localSheetId="0">Собственник!$B$14:$P$14</definedName>
-    <definedName name="СтрокаИтогоВЦ" localSheetId="1">'ТОО Казыкурт'!$M$14:$P$14</definedName>
+    <definedName name="СтрокаИтогоВЦ" localSheetId="1">'ТОО Казыкурт'!$M$14:$O$14</definedName>
     <definedName name="СтрокаИтогоСумма" localSheetId="0">Собственник!$C$18:$P$18</definedName>
     <definedName name="СтрокаИтогоСумма" localSheetId="1">'ТОО Казыкурт'!$C$28:$P$28</definedName>
     <definedName name="СтрокаПериода" localSheetId="0">Собственник!$B$12</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Дата</t>
   </si>
@@ -181,9 +181,6 @@
     <t>Оконч. обр-ки</t>
   </si>
   <si>
-    <t>ТОР 4-х осных:</t>
-  </si>
-  <si>
     <t>Собственник</t>
   </si>
   <si>
@@ -212,6 +209,12 @@
   </si>
   <si>
     <t>№ акта</t>
+  </si>
+  <si>
+    <t>Замена трафарета</t>
+  </si>
+  <si>
+    <t>Наружняя очитска котлов</t>
   </si>
 </sst>
 </file>
@@ -350,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,6 +441,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -631,13 +635,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>13097</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -686,13 +690,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>275034</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -741,13 +745,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>8334</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1527,7 +1531,7 @@
   <dimension ref="A2:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:K22"/>
+      <selection activeCell="N8" sqref="N8:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,7 +1545,7 @@
     <col min="9" max="9" width="5.7109375" customWidth="1"/>
     <col min="10" max="10" width="6.28515625" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
     <col min="15" max="15" width="19.28515625" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
     <col min="17" max="20" width="15.28515625" customWidth="1"/>
@@ -1603,7 +1607,7 @@
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -1655,7 +1659,7 @@
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -1708,25 +1712,31 @@
         <v>12</v>
       </c>
       <c r="L8" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="23" t="s">
+      <c r="N8" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" s="23" t="s">
+      <c r="Q8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="24" t="s">
+      <c r="R8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="R8" s="23" t="s">
-        <v>44</v>
+      <c r="T8" s="23" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -1751,11 +1761,13 @@
       <c r="K9" s="24"/>
       <c r="L9" s="29"/>
       <c r="M9" s="23"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
       <c r="P9" s="24"/>
       <c r="Q9" s="24"/>
       <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
@@ -1771,36 +1783,57 @@
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
-        <v>43</v>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O14" s="14"/>
-      <c r="P14" s="17"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C15" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="C15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" s="18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -1809,7 +1842,7 @@
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K17" s="18"/>
     </row>
@@ -1828,7 +1861,7 @@
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C19" s="18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -1836,36 +1869,12 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18" t="s">
-        <v>49</v>
-      </c>
+      <c r="J19" s="18"/>
       <c r="K19" s="18"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C21" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="O22" s="14"/>
@@ -1883,10 +1892,12 @@
       <c r="P28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
     <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="O8:O9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -1894,10 +1905,10 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
-    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="R8:R9"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:K9"/>
-    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="P8:P9"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="M8:M9"/>
   </mergeCells>

--- a/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
+++ b/Учет цистерн/Forms/ReportTemplates/Реестр  за арендованных и  собственных вагон-цистерн компании.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF3A0D2-B45B-4CA3-9DEF-3B8DDAD08598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3005D58-8C1B-4C24-A485-724ADD31E807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ТОО Казыкурт" sheetId="7" r:id="rId1"/>
@@ -197,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -272,11 +272,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -311,26 +320,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -347,176 +357,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>13097</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Прямая соединительная линия 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF3E08E-7E07-441A-BB21-51A69FE0FB26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2641997" y="3848100"/>
-          <a:ext cx="915591" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>275034</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Прямая соединительная линия 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B24195-43D8-4129-A9A8-941F8D9E2F73}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2627709" y="4219575"/>
-          <a:ext cx="934641" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>8334</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A49A9F0-C67F-4F93-B23F-042047104E01}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2637234" y="4600575"/>
-          <a:ext cx="934641" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -843,7 +683,7 @@
   <dimension ref="A2:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,92 +834,92 @@
       <c r="V6" s="3"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="16" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="16" t="s">
+      <c r="J8" s="19"/>
+      <c r="K8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="17" t="s">
+      <c r="P8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="16" t="s">
+      <c r="Q8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="17" t="s">
+      <c r="R8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="16" t="s">
+      <c r="S8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="T8" s="16" t="s">
+      <c r="T8" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="11" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
@@ -1122,8 +962,8 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10" t="s">
         <v>27</v>
@@ -1150,8 +990,8 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10" t="s">
         <v>26</v>
@@ -1178,8 +1018,8 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -1205,6 +1045,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="R8:R9"/>
@@ -1213,20 +1063,9 @@
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="M8:M9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="Q8:Q9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>